--- a/cable_text.xlsx
+++ b/cable_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="시청률흥행지표-케이블" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,7 @@
     <sheet name="기대수치" sheetId="5" r:id="rId5"/>
     <sheet name="weekly-date-rate" sheetId="4" r:id="rId6"/>
     <sheet name="predictSheet" sheetId="7" r:id="rId7"/>
-    <sheet name="commentSheet" sheetId="8" r:id="rId8"/>
-    <sheet name="beforeAfter" sheetId="10" r:id="rId9"/>
+    <sheet name="beforeAfter" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="215">
   <si>
     <t>avg_rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -724,6 +723,10 @@
   <si>
     <t>fc/bc</t>
   </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1059,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23674,15 +23677,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="M198" sqref="M198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -23719,8 +23722,11 @@
       <c r="L1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
@@ -23757,8 +23763,12 @@
       <c r="L2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <f>SUM(F2:L2)</f>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -23795,8 +23805,12 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">SUM(F3:L3)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -23833,8 +23847,12 @@
       <c r="L4">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -23871,8 +23889,12 @@
       <c r="L5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -23909,8 +23931,12 @@
       <c r="L6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -23947,8 +23973,12 @@
       <c r="L7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -23985,8 +24015,12 @@
       <c r="L8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17</v>
       </c>
@@ -24023,8 +24057,12 @@
       <c r="L9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -24061,8 +24099,12 @@
       <c r="L10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17</v>
       </c>
@@ -24099,8 +24141,12 @@
       <c r="L11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -24137,8 +24183,12 @@
       <c r="L12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>17</v>
       </c>
@@ -24175,8 +24225,12 @@
       <c r="L13">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -24213,8 +24267,12 @@
       <c r="L14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -24251,8 +24309,12 @@
       <c r="L15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -24289,8 +24351,12 @@
       <c r="L16">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -24327,8 +24393,12 @@
       <c r="L17">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -24365,8 +24435,12 @@
       <c r="L18">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>6302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24</v>
       </c>
@@ -24403,8 +24477,12 @@
       <c r="L19">
         <v>356</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -24441,8 +24519,12 @@
       <c r="L20">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>8407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -24479,8 +24561,12 @@
       <c r="L21">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -24517,8 +24603,12 @@
       <c r="L22">
         <v>336</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -24555,8 +24645,12 @@
       <c r="L23">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>12762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -24593,8 +24687,12 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>27</v>
       </c>
@@ -24631,8 +24729,12 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
@@ -24669,8 +24771,12 @@
       <c r="L26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -24707,8 +24813,12 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24745,8 +24855,12 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -24783,8 +24897,12 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -24821,8 +24939,12 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -24859,8 +24981,12 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -24897,8 +25023,12 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -24935,8 +25065,12 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>41</v>
       </c>
@@ -24973,8 +25107,12 @@
       <c r="L34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -25011,8 +25149,12 @@
       <c r="L35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>41</v>
       </c>
@@ -25049,8 +25191,12 @@
       <c r="L36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>41</v>
       </c>
@@ -25087,8 +25233,12 @@
       <c r="L37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -25125,8 +25275,12 @@
       <c r="L38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>41</v>
       </c>
@@ -25163,8 +25317,12 @@
       <c r="L39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -25201,8 +25359,12 @@
       <c r="L40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43</v>
       </c>
@@ -25239,8 +25401,12 @@
       <c r="L41">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -25277,8 +25443,12 @@
       <c r="L42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -25315,8 +25485,12 @@
       <c r="L43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -25353,8 +25527,12 @@
       <c r="L44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -25391,8 +25569,12 @@
       <c r="L45">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -25429,8 +25611,12 @@
       <c r="L46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -25467,8 +25653,12 @@
       <c r="L47">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>43</v>
       </c>
@@ -25505,8 +25695,12 @@
       <c r="L48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>51</v>
       </c>
@@ -25543,8 +25737,12 @@
       <c r="L49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>51</v>
       </c>
@@ -25581,8 +25779,12 @@
       <c r="L50">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -25619,8 +25821,12 @@
       <c r="L51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -25657,8 +25863,12 @@
       <c r="L52">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -25695,8 +25905,12 @@
       <c r="L53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -25733,8 +25947,12 @@
       <c r="L54">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -25771,8 +25989,12 @@
       <c r="L55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25809,8 +26031,12 @@
       <c r="L56">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -25847,8 +26073,12 @@
       <c r="L57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -25885,8 +26115,12 @@
       <c r="L58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -25923,8 +26157,12 @@
       <c r="L59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>55</v>
       </c>
@@ -25961,8 +26199,12 @@
       <c r="L60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -25999,8 +26241,12 @@
       <c r="L61">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>55</v>
       </c>
@@ -26037,8 +26283,12 @@
       <c r="L62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>55</v>
       </c>
@@ -26075,8 +26325,12 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>68</v>
       </c>
@@ -26113,8 +26367,12 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -26151,8 +26409,12 @@
       <c r="L65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>68</v>
       </c>
@@ -26189,8 +26451,12 @@
       <c r="L66">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>68</v>
       </c>
@@ -26227,8 +26493,12 @@
       <c r="L67">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="1">SUM(F67:L67)</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -26265,8 +26535,12 @@
       <c r="L68">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -26303,8 +26577,12 @@
       <c r="L69">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -26341,8 +26619,12 @@
       <c r="L70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -26379,8 +26661,12 @@
       <c r="L71">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -26417,8 +26703,12 @@
       <c r="L72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
@@ -26455,8 +26745,12 @@
       <c r="L73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>69</v>
       </c>
@@ -26493,8 +26787,12 @@
       <c r="L74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
@@ -26531,8 +26829,12 @@
       <c r="L75">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -26569,8 +26871,12 @@
       <c r="L76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -26607,8 +26913,12 @@
       <c r="L77">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74</v>
       </c>
@@ -26645,8 +26955,12 @@
       <c r="L78">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>74</v>
       </c>
@@ -26683,8 +26997,12 @@
       <c r="L79">
         <v>237</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>74</v>
       </c>
@@ -26721,8 +27039,12 @@
       <c r="L80">
         <v>269</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>74</v>
       </c>
@@ -26759,8 +27081,12 @@
       <c r="L81">
         <v>322</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>74</v>
       </c>
@@ -26797,8 +27123,12 @@
       <c r="L82">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>74</v>
       </c>
@@ -26835,8 +27165,12 @@
       <c r="L83">
         <v>277</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>74</v>
       </c>
@@ -26873,8 +27207,12 @@
       <c r="L84">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76</v>
       </c>
@@ -26911,8 +27249,12 @@
       <c r="L85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>76</v>
       </c>
@@ -26949,8 +27291,12 @@
       <c r="L86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>76</v>
       </c>
@@ -26987,8 +27333,12 @@
       <c r="L87">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>76</v>
       </c>
@@ -27025,8 +27375,12 @@
       <c r="L88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>76</v>
       </c>
@@ -27063,8 +27417,12 @@
       <c r="L89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>76</v>
       </c>
@@ -27101,8 +27459,12 @@
       <c r="L90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>76</v>
       </c>
@@ -27139,8 +27501,12 @@
       <c r="L91">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>84</v>
       </c>
@@ -27177,8 +27543,12 @@
       <c r="L92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>84</v>
       </c>
@@ -27215,8 +27585,12 @@
       <c r="L93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>84</v>
       </c>
@@ -27253,8 +27627,12 @@
       <c r="L94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>84</v>
       </c>
@@ -27291,8 +27669,12 @@
       <c r="L95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>84</v>
       </c>
@@ -27329,8 +27711,12 @@
       <c r="L96">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>87</v>
       </c>
@@ -27367,8 +27753,12 @@
       <c r="L97">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>87</v>
       </c>
@@ -27405,8 +27795,12 @@
       <c r="L98">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>87</v>
       </c>
@@ -27443,8 +27837,12 @@
       <c r="L99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>87</v>
       </c>
@@ -27481,8 +27879,12 @@
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>87</v>
       </c>
@@ -27519,8 +27921,12 @@
       <c r="L101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>87</v>
       </c>
@@ -27557,8 +27963,12 @@
       <c r="L102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>87</v>
       </c>
@@ -27595,8 +28005,12 @@
       <c r="L103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>91</v>
       </c>
@@ -27633,8 +28047,12 @@
       <c r="L104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>91</v>
       </c>
@@ -27671,8 +28089,12 @@
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>91</v>
       </c>
@@ -27709,8 +28131,12 @@
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>91</v>
       </c>
@@ -27747,8 +28173,12 @@
       <c r="L107">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>91</v>
       </c>
@@ -27785,8 +28215,12 @@
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>91</v>
       </c>
@@ -27823,8 +28257,12 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>91</v>
       </c>
@@ -27861,8 +28299,12 @@
       <c r="L110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>93</v>
       </c>
@@ -27899,8 +28341,12 @@
       <c r="L111">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>93</v>
       </c>
@@ -27937,8 +28383,12 @@
       <c r="L112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>93</v>
       </c>
@@ -27975,8 +28425,12 @@
       <c r="L113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>93</v>
       </c>
@@ -28013,8 +28467,12 @@
       <c r="L114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>93</v>
       </c>
@@ -28051,8 +28509,12 @@
       <c r="L115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>93</v>
       </c>
@@ -28089,8 +28551,12 @@
       <c r="L116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>101</v>
       </c>
@@ -28127,8 +28593,12 @@
       <c r="L117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>101</v>
       </c>
@@ -28165,8 +28635,12 @@
       <c r="L118">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>101</v>
       </c>
@@ -28203,8 +28677,12 @@
       <c r="L119">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>101</v>
       </c>
@@ -28241,8 +28719,12 @@
       <c r="L120">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>101</v>
       </c>
@@ -28279,8 +28761,12 @@
       <c r="L121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>101</v>
       </c>
@@ -28317,8 +28803,12 @@
       <c r="L122">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <f t="shared" si="1"/>
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>101</v>
       </c>
@@ -28355,8 +28845,12 @@
       <c r="L123">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <f t="shared" si="1"/>
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>101</v>
       </c>
@@ -28393,8 +28887,12 @@
       <c r="L124">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124">
+        <f t="shared" si="1"/>
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>104</v>
       </c>
@@ -28431,8 +28929,12 @@
       <c r="L125">
         <v>167</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125">
+        <f t="shared" si="1"/>
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>104</v>
       </c>
@@ -28469,8 +28971,12 @@
       <c r="L126">
         <v>133</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <f t="shared" si="1"/>
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>104</v>
       </c>
@@ -28507,8 +29013,12 @@
       <c r="L127">
         <v>121</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <f t="shared" si="1"/>
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>104</v>
       </c>
@@ -28545,8 +29055,12 @@
       <c r="L128">
         <v>50</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>104</v>
       </c>
@@ -28583,8 +29097,12 @@
       <c r="L129">
         <v>42</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129">
+        <f t="shared" si="1"/>
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>104</v>
       </c>
@@ -28621,8 +29139,12 @@
       <c r="L130">
         <v>106</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <f t="shared" si="1"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>104</v>
       </c>
@@ -28659,8 +29181,12 @@
       <c r="L131">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131">
+        <f t="shared" ref="M131:M193" si="2">SUM(F131:L131)</f>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>108</v>
       </c>
@@ -28697,8 +29223,12 @@
       <c r="L132">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132">
+        <f t="shared" si="2"/>
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>108</v>
       </c>
@@ -28735,8 +29265,12 @@
       <c r="L133">
         <v>99</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <f t="shared" si="2"/>
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>108</v>
       </c>
@@ -28773,8 +29307,12 @@
       <c r="L134">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <f t="shared" si="2"/>
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>108</v>
       </c>
@@ -28811,8 +29349,12 @@
       <c r="L135">
         <v>129</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>108</v>
       </c>
@@ -28849,8 +29391,12 @@
       <c r="L136">
         <v>78</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>7154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>108</v>
       </c>
@@ -28887,8 +29433,12 @@
       <c r="L137">
         <v>552</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <f t="shared" si="2"/>
+        <v>7552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>108</v>
       </c>
@@ -28925,8 +29475,12 @@
       <c r="L138">
         <v>109</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <f t="shared" si="2"/>
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>108</v>
       </c>
@@ -28963,8 +29517,12 @@
       <c r="L139">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <f t="shared" si="2"/>
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>108</v>
       </c>
@@ -29001,8 +29559,12 @@
       <c r="L140">
         <v>121</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140">
+        <f t="shared" si="2"/>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>113</v>
       </c>
@@ -29039,8 +29601,12 @@
       <c r="L141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>113</v>
       </c>
@@ -29077,8 +29643,12 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>113</v>
       </c>
@@ -29115,8 +29685,12 @@
       <c r="L143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>113</v>
       </c>
@@ -29153,8 +29727,12 @@
       <c r="L144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>113</v>
       </c>
@@ -29191,8 +29769,12 @@
       <c r="L145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>122</v>
       </c>
@@ -29229,8 +29811,12 @@
       <c r="L146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146">
+        <f t="shared" si="2"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>122</v>
       </c>
@@ -29267,8 +29853,12 @@
       <c r="L147">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <f t="shared" si="2"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>122</v>
       </c>
@@ -29305,8 +29895,12 @@
       <c r="L148">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <f t="shared" si="2"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>122</v>
       </c>
@@ -29343,8 +29937,12 @@
       <c r="L149">
         <v>37</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>122</v>
       </c>
@@ -29381,8 +29979,12 @@
       <c r="L150">
         <v>31</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>122</v>
       </c>
@@ -29419,8 +30021,12 @@
       <c r="L151">
         <v>53</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151">
+        <f t="shared" si="2"/>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>122</v>
       </c>
@@ -29457,8 +30063,12 @@
       <c r="L152">
         <v>23</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>131</v>
       </c>
@@ -29495,8 +30105,12 @@
       <c r="L153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153">
+        <f t="shared" si="2"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>131</v>
       </c>
@@ -29533,8 +30147,12 @@
       <c r="L154">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>131</v>
       </c>
@@ -29571,8 +30189,12 @@
       <c r="L155">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M155">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>131</v>
       </c>
@@ -29609,8 +30231,12 @@
       <c r="L156">
         <v>56</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>131</v>
       </c>
@@ -29647,8 +30273,12 @@
       <c r="L157">
         <v>62</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>131</v>
       </c>
@@ -29685,8 +30315,12 @@
       <c r="L158">
         <v>76</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>140</v>
       </c>
@@ -29723,8 +30357,12 @@
       <c r="L159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>140</v>
       </c>
@@ -29761,8 +30399,12 @@
       <c r="L160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>140</v>
       </c>
@@ -29799,8 +30441,12 @@
       <c r="L161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>140</v>
       </c>
@@ -29837,8 +30483,12 @@
       <c r="L162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>140</v>
       </c>
@@ -29875,8 +30525,12 @@
       <c r="L163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>140</v>
       </c>
@@ -29913,8 +30567,12 @@
       <c r="L164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>140</v>
       </c>
@@ -29951,8 +30609,12 @@
       <c r="L165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>152</v>
       </c>
@@ -29989,8 +30651,12 @@
       <c r="L166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>152</v>
       </c>
@@ -30027,8 +30693,12 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>152</v>
       </c>
@@ -30065,8 +30735,12 @@
       <c r="L168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>152</v>
       </c>
@@ -30103,8 +30777,12 @@
       <c r="L169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>152</v>
       </c>
@@ -30141,8 +30819,12 @@
       <c r="L170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>157</v>
       </c>
@@ -30179,8 +30861,12 @@
       <c r="L171">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>157</v>
       </c>
@@ -30217,8 +30903,12 @@
       <c r="L172">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>157</v>
       </c>
@@ -30255,8 +30945,12 @@
       <c r="L173">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>157</v>
       </c>
@@ -30293,8 +30987,12 @@
       <c r="L174">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>157</v>
       </c>
@@ -30331,8 +31029,12 @@
       <c r="L175">
         <v>26</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>157</v>
       </c>
@@ -30369,8 +31071,12 @@
       <c r="L176">
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>157</v>
       </c>
@@ -30407,8 +31113,12 @@
       <c r="L177">
         <v>26</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>157</v>
       </c>
@@ -30445,8 +31155,12 @@
       <c r="L178">
         <v>32</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>166</v>
       </c>
@@ -30483,8 +31197,12 @@
       <c r="L179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>166</v>
       </c>
@@ -30521,8 +31239,12 @@
       <c r="L180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>166</v>
       </c>
@@ -30559,8 +31281,12 @@
       <c r="L181">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>166</v>
       </c>
@@ -30597,8 +31323,12 @@
       <c r="L182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>166</v>
       </c>
@@ -30635,8 +31365,12 @@
       <c r="L183">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>166</v>
       </c>
@@ -30673,8 +31407,12 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>166</v>
       </c>
@@ -30711,8 +31449,12 @@
       <c r="L185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>178</v>
       </c>
@@ -30749,8 +31491,12 @@
       <c r="L186">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>178</v>
       </c>
@@ -30787,8 +31533,12 @@
       <c r="L187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>178</v>
       </c>
@@ -30825,8 +31575,12 @@
       <c r="L188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>178</v>
       </c>
@@ -30863,8 +31617,12 @@
       <c r="L189">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>178</v>
       </c>
@@ -30901,8 +31659,12 @@
       <c r="L190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>178</v>
       </c>
@@ -30939,8 +31701,12 @@
       <c r="L191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>178</v>
       </c>
@@ -30977,8 +31743,12 @@
       <c r="L192">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>178</v>
       </c>
@@ -31014,6 +31784,34 @@
       </c>
       <c r="L193">
         <v>3</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M194">
+        <f>MIN(M2:M193)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M195">
+        <f>MAX(M2:M193)</f>
+        <v>12762</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M196">
+        <f>MEDIAN(M2:M193)</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M197">
+        <f>AVERAGE(M2)</f>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -31024,10 +31822,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31037,4422 +31835,6 @@
         <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="C2">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="D2">
-        <v>3.0065</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1.907</v>
-      </c>
-      <c r="C3">
-        <v>1.907</v>
-      </c>
-      <c r="D3">
-        <v>1.907</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="C4">
-        <v>1.639</v>
-      </c>
-      <c r="D4">
-        <v>1.718</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>2.1309999999999998</v>
-      </c>
-      <c r="C5">
-        <v>1.98</v>
-      </c>
-      <c r="D5">
-        <v>2.0554999999999999</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1.609</v>
-      </c>
-      <c r="C6">
-        <v>1.677</v>
-      </c>
-      <c r="D6">
-        <v>1.643</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>1.502</v>
-      </c>
-      <c r="C7">
-        <v>1.762</v>
-      </c>
-      <c r="D7">
-        <v>1.6320000000000001</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1.5780000000000001</v>
-      </c>
-      <c r="C8">
-        <v>1.631</v>
-      </c>
-      <c r="D8">
-        <v>1.6045</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1.639</v>
-      </c>
-      <c r="C9">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="D9">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="C10">
-        <v>2.9860000000000002</v>
-      </c>
-      <c r="D10">
-        <v>2.6660000000000004</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>5.4059999999999997</v>
-      </c>
-      <c r="C11">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="D11">
-        <v>5.3725000000000005</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>4.2359999999999998</v>
-      </c>
-      <c r="C12">
-        <v>4.6630000000000003</v>
-      </c>
-      <c r="D12">
-        <v>4.4495000000000005</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>4.6630000000000003</v>
-      </c>
-      <c r="C13">
-        <v>4.9740000000000002</v>
-      </c>
-      <c r="D13">
-        <v>4.8185000000000002</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>5.3579999999999997</v>
-      </c>
-      <c r="C14">
-        <v>4.1920000000000002</v>
-      </c>
-      <c r="D14">
-        <v>4.7750000000000004</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>4.6539999999999999</v>
-      </c>
-      <c r="C15">
-        <v>3.8860000000000001</v>
-      </c>
-      <c r="D15">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>5.1319999999999997</v>
-      </c>
-      <c r="C16">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="D16">
-        <v>5.0934999999999997</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="C17">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="D17">
-        <v>5.0549999999999997</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>6.3220000000000001</v>
-      </c>
-      <c r="C18">
-        <v>7.9039999999999999</v>
-      </c>
-      <c r="D18">
-        <v>7.1129999999999995</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>5568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>12.471</v>
-      </c>
-      <c r="C19">
-        <v>11.372999999999999</v>
-      </c>
-      <c r="D19">
-        <v>11.922000000000001</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>6799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>11.507</v>
-      </c>
-      <c r="C20">
-        <v>11.618</v>
-      </c>
-      <c r="D20">
-        <v>11.5625</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>6302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>12.297000000000001</v>
-      </c>
-      <c r="C21">
-        <v>12.297000000000001</v>
-      </c>
-      <c r="D21">
-        <v>12.297000000000001</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>12.343999999999999</v>
-      </c>
-      <c r="C22">
-        <v>12.933</v>
-      </c>
-      <c r="D22">
-        <v>12.638500000000001</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>8407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>12.702</v>
-      </c>
-      <c r="C23">
-        <v>13.894</v>
-      </c>
-      <c r="D23">
-        <v>13.298</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>9052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>13.712</v>
-      </c>
-      <c r="C24">
-        <v>14.254</v>
-      </c>
-      <c r="D24">
-        <v>13.983000000000001</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>8892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>16.042999999999999</v>
-      </c>
-      <c r="C25">
-        <v>18.68</v>
-      </c>
-      <c r="D25">
-        <v>17.361499999999999</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>12762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>16.917000000000002</v>
-      </c>
-      <c r="C26">
-        <v>18.68</v>
-      </c>
-      <c r="D26">
-        <v>17.798500000000001</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>2.532</v>
-      </c>
-      <c r="C27">
-        <v>2.7679999999999998</v>
-      </c>
-      <c r="D27">
-        <v>2.65</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="C28">
-        <v>2.427</v>
-      </c>
-      <c r="D28">
-        <v>2.5075000000000003</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>2.427</v>
-      </c>
-      <c r="C29">
-        <v>2.57</v>
-      </c>
-      <c r="D29">
-        <v>2.4984999999999999</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="C30">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="D30">
-        <v>2.9044999999999996</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="C31">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="D31">
-        <v>2.6345000000000001</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>2.7679999999999998</v>
-      </c>
-      <c r="C32">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="D32">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>2.427</v>
-      </c>
-      <c r="C33">
-        <v>2.427</v>
-      </c>
-      <c r="D33">
-        <v>2.427</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>2.57</v>
-      </c>
-      <c r="C34">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="D34">
-        <v>2.9184999999999999</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>27</v>
-      </c>
-      <c r="B35">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="C35">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="D35">
-        <v>2.548</v>
-      </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="C36">
-        <v>3.206</v>
-      </c>
-      <c r="D36">
-        <v>2.9604999999999997</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>3.6349999999999998</v>
-      </c>
-      <c r="C37">
-        <v>3.206</v>
-      </c>
-      <c r="D37">
-        <v>3.4205000000000001</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="C38">
-        <v>3.1869999999999998</v>
-      </c>
-      <c r="D38">
-        <v>3.0545</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="C39">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="D39">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>3.3090000000000002</v>
-      </c>
-      <c r="C40">
-        <v>2.556</v>
-      </c>
-      <c r="D40">
-        <v>2.9325000000000001</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="C41">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="D41">
-        <v>2.7349999999999999</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>3.9790000000000001</v>
-      </c>
-      <c r="C42">
-        <v>3.6240000000000001</v>
-      </c>
-      <c r="D42">
-        <v>3.8014999999999999</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>4.4269999999999996</v>
-      </c>
-      <c r="C43">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="D43">
-        <v>4.0564999999999998</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="C44">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D44">
-        <v>4.2225000000000001</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>3.7</v>
-      </c>
-      <c r="C45">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D45">
-        <v>4.3599999999999994</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
-      </c>
-      <c r="F45">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>3.5489999999999999</v>
-      </c>
-      <c r="C46">
-        <v>3.5489999999999999</v>
-      </c>
-      <c r="D46">
-        <v>3.5489999999999999</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>1.796</v>
-      </c>
-      <c r="C47">
-        <v>2.68</v>
-      </c>
-      <c r="D47">
-        <v>2.238</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>43</v>
-      </c>
-      <c r="B48">
-        <v>2.23</v>
-      </c>
-      <c r="C48">
-        <v>2.9670000000000001</v>
-      </c>
-      <c r="D48">
-        <v>2.5985</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49">
-        <v>3.903</v>
-      </c>
-      <c r="C49">
-        <v>3.2160000000000002</v>
-      </c>
-      <c r="D49">
-        <v>3.5594999999999999</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>43</v>
-      </c>
-      <c r="B50">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="C50">
-        <v>3.036</v>
-      </c>
-      <c r="D50">
-        <v>3.0335000000000001</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>43</v>
-      </c>
-      <c r="B51">
-        <v>2.7480000000000002</v>
-      </c>
-      <c r="C51">
-        <v>2.3919999999999999</v>
-      </c>
-      <c r="D51">
-        <v>2.5700000000000003</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>43</v>
-      </c>
-      <c r="B52">
-        <v>2.0089999999999999</v>
-      </c>
-      <c r="C52">
-        <v>2.601</v>
-      </c>
-      <c r="D52">
-        <v>2.3049999999999997</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>43</v>
-      </c>
-      <c r="B53">
-        <v>2.601</v>
-      </c>
-      <c r="C53">
-        <v>2.407</v>
-      </c>
-      <c r="D53">
-        <v>2.504</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
-      </c>
-      <c r="F53">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>43</v>
-      </c>
-      <c r="B54">
-        <v>2.456</v>
-      </c>
-      <c r="C54">
-        <v>3.1179999999999999</v>
-      </c>
-      <c r="D54">
-        <v>2.7869999999999999</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>51</v>
-      </c>
-      <c r="B55">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="C55">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="D55">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>51</v>
-      </c>
-      <c r="B56">
-        <v>3.5150000000000001</v>
-      </c>
-      <c r="C56">
-        <v>3.8660000000000001</v>
-      </c>
-      <c r="D56">
-        <v>3.6905000000000001</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="C57">
-        <v>3.379</v>
-      </c>
-      <c r="D57">
-        <v>3.4359999999999999</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="C58">
-        <v>3.6680000000000001</v>
-      </c>
-      <c r="D58">
-        <v>3.0305</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>51</v>
-      </c>
-      <c r="B59">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="C59">
-        <v>3.63</v>
-      </c>
-      <c r="D59">
-        <v>3.2389999999999999</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>51</v>
-      </c>
-      <c r="B60">
-        <v>3.0289999999999999</v>
-      </c>
-      <c r="C60">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="D60">
-        <v>3.1034999999999999</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>51</v>
-      </c>
-      <c r="B61">
-        <v>3.492</v>
-      </c>
-      <c r="C61">
-        <v>3.492</v>
-      </c>
-      <c r="D61">
-        <v>3.492</v>
-      </c>
-      <c r="E61">
-        <v>6</v>
-      </c>
-      <c r="F61">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>51</v>
-      </c>
-      <c r="B62">
-        <v>3.2469999999999999</v>
-      </c>
-      <c r="C62">
-        <v>4.3109999999999999</v>
-      </c>
-      <c r="D62">
-        <v>3.7789999999999999</v>
-      </c>
-      <c r="E62">
-        <v>7</v>
-      </c>
-      <c r="F62">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>55</v>
-      </c>
-      <c r="B63">
-        <v>3.9660000000000002</v>
-      </c>
-      <c r="C63">
-        <v>3.7650000000000001</v>
-      </c>
-      <c r="D63">
-        <v>3.8654999999999999</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>55</v>
-      </c>
-      <c r="B64">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="C64">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="D64">
-        <v>4.6370000000000005</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>55</v>
-      </c>
-      <c r="B65">
-        <v>3.9540000000000002</v>
-      </c>
-      <c r="C65">
-        <v>3.9540000000000002</v>
-      </c>
-      <c r="D65">
-        <v>3.9540000000000002</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>55</v>
-      </c>
-      <c r="B66">
-        <v>5.1829999999999998</v>
-      </c>
-      <c r="C66">
-        <v>3.887</v>
-      </c>
-      <c r="D66">
-        <v>4.5350000000000001</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>55</v>
-      </c>
-      <c r="B67">
-        <v>4.8179999999999996</v>
-      </c>
-      <c r="C67">
-        <v>4.3129999999999997</v>
-      </c>
-      <c r="D67">
-        <v>4.5655000000000001</v>
-      </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>55</v>
-      </c>
-      <c r="B68">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="C68">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="D68">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
-      </c>
-      <c r="F68">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>55</v>
-      </c>
-      <c r="B69">
-        <v>4.2220000000000004</v>
-      </c>
-      <c r="C69">
-        <v>5.2030000000000003</v>
-      </c>
-      <c r="D69">
-        <v>4.7125000000000004</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>55</v>
-      </c>
-      <c r="B70">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="C70">
-        <v>5.9210000000000003</v>
-      </c>
-      <c r="D70">
-        <v>5.0145</v>
-      </c>
-      <c r="E70">
-        <v>7</v>
-      </c>
-      <c r="F70">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>55</v>
-      </c>
-      <c r="B71">
-        <v>6.2320000000000002</v>
-      </c>
-      <c r="C71">
-        <v>5.9210000000000003</v>
-      </c>
-      <c r="D71">
-        <v>6.0765000000000002</v>
-      </c>
-      <c r="E71">
-        <v>8</v>
-      </c>
-      <c r="F71">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>68</v>
-      </c>
-      <c r="B72">
-        <v>1.577</v>
-      </c>
-      <c r="C72">
-        <v>1.92</v>
-      </c>
-      <c r="D72">
-        <v>1.7484999999999999</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>68</v>
-      </c>
-      <c r="B73">
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="C73">
-        <v>3.3380000000000001</v>
-      </c>
-      <c r="D73">
-        <v>2.7945000000000002</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>68</v>
-      </c>
-      <c r="B74">
-        <v>1.867</v>
-      </c>
-      <c r="C74">
-        <v>3.0880000000000001</v>
-      </c>
-      <c r="D74">
-        <v>2.4775</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>68</v>
-      </c>
-      <c r="B75">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="C75">
-        <v>4.0629999999999997</v>
-      </c>
-      <c r="D75">
-        <v>3.6239999999999997</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>68</v>
-      </c>
-      <c r="B76">
-        <v>3.383</v>
-      </c>
-      <c r="C76">
-        <v>3.9550000000000001</v>
-      </c>
-      <c r="D76">
-        <v>3.669</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>68</v>
-      </c>
-      <c r="B77">
-        <v>4.468</v>
-      </c>
-      <c r="C77">
-        <v>4.468</v>
-      </c>
-      <c r="D77">
-        <v>4.468</v>
-      </c>
-      <c r="E77">
-        <v>5</v>
-      </c>
-      <c r="F77">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>68</v>
-      </c>
-      <c r="B78">
-        <v>3.794</v>
-      </c>
-      <c r="C78">
-        <v>4.3860000000000001</v>
-      </c>
-      <c r="D78">
-        <v>4.09</v>
-      </c>
-      <c r="E78">
-        <v>6</v>
-      </c>
-      <c r="F78">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>68</v>
-      </c>
-      <c r="B79">
-        <v>4.0990000000000002</v>
-      </c>
-      <c r="C79">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="D79">
-        <v>4.3290000000000006</v>
-      </c>
-      <c r="E79">
-        <v>7</v>
-      </c>
-      <c r="F79">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>69</v>
-      </c>
-      <c r="B80">
-        <v>2.6059999999999999</v>
-      </c>
-      <c r="C80">
-        <v>2.4220000000000002</v>
-      </c>
-      <c r="D80">
-        <v>2.5140000000000002</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>69</v>
-      </c>
-      <c r="B81">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="C81">
-        <v>2.7050000000000001</v>
-      </c>
-      <c r="D81">
-        <v>2.625</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>69</v>
-      </c>
-      <c r="B82">
-        <v>2.9860000000000002</v>
-      </c>
-      <c r="C82">
-        <v>2.38</v>
-      </c>
-      <c r="D82">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>69</v>
-      </c>
-      <c r="B83">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C83">
-        <v>2.7970000000000002</v>
-      </c>
-      <c r="D83">
-        <v>2.5285000000000002</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>69</v>
-      </c>
-      <c r="B84">
-        <v>2.742</v>
-      </c>
-      <c r="C84">
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="D84">
-        <v>2.532</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-      <c r="F84">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>69</v>
-      </c>
-      <c r="B85">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="C85">
-        <v>2.7730000000000001</v>
-      </c>
-      <c r="D85">
-        <v>2.7410000000000001</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
-      </c>
-      <c r="F85">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>74</v>
-      </c>
-      <c r="B86">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="C86">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="D86">
-        <v>2.52</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>74</v>
-      </c>
-      <c r="B87">
-        <v>2.996</v>
-      </c>
-      <c r="C87">
-        <v>4.2530000000000001</v>
-      </c>
-      <c r="D87">
-        <v>3.6245000000000003</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>74</v>
-      </c>
-      <c r="B88">
-        <v>5.0309999999999997</v>
-      </c>
-      <c r="C88">
-        <v>6.0679999999999996</v>
-      </c>
-      <c r="D88">
-        <v>5.5495000000000001</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>74</v>
-      </c>
-      <c r="B89">
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="C89">
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="D89">
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>74</v>
-      </c>
-      <c r="B90">
-        <v>7.798</v>
-      </c>
-      <c r="C90">
-        <v>7.99</v>
-      </c>
-      <c r="D90">
-        <v>7.8940000000000001</v>
-      </c>
-      <c r="E90">
-        <v>4</v>
-      </c>
-      <c r="F90">
-        <v>8147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>74</v>
-      </c>
-      <c r="B91">
-        <v>8.4250000000000007</v>
-      </c>
-      <c r="C91">
-        <v>9.0220000000000002</v>
-      </c>
-      <c r="D91">
-        <v>8.7235000000000014</v>
-      </c>
-      <c r="E91">
-        <v>5</v>
-      </c>
-      <c r="F91">
-        <v>4726</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>74</v>
-      </c>
-      <c r="B92">
-        <v>9.3529999999999998</v>
-      </c>
-      <c r="C92">
-        <v>8.5069999999999997</v>
-      </c>
-      <c r="D92">
-        <v>8.93</v>
-      </c>
-      <c r="E92">
-        <v>6</v>
-      </c>
-      <c r="F92">
-        <v>4576</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>74</v>
-      </c>
-      <c r="B93">
-        <v>8.8360000000000003</v>
-      </c>
-      <c r="C93">
-        <v>7.9290000000000003</v>
-      </c>
-      <c r="D93">
-        <v>8.3825000000000003</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>74</v>
-      </c>
-      <c r="B94">
-        <v>8.0269999999999992</v>
-      </c>
-      <c r="C94">
-        <v>8.0280000000000005</v>
-      </c>
-      <c r="D94">
-        <v>8.0274999999999999</v>
-      </c>
-      <c r="E94">
-        <v>8</v>
-      </c>
-      <c r="F94">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>74</v>
-      </c>
-      <c r="B95">
-        <v>9.9909999999999997</v>
-      </c>
-      <c r="C95">
-        <v>8.0280000000000005</v>
-      </c>
-      <c r="D95">
-        <v>9.0094999999999992</v>
-      </c>
-      <c r="E95">
-        <v>9</v>
-      </c>
-      <c r="F95">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>76</v>
-      </c>
-      <c r="B96">
-        <v>4.8949999999999996</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>4.4474999999999998</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>76</v>
-      </c>
-      <c r="B97">
-        <v>4.6760000000000002</v>
-      </c>
-      <c r="C97">
-        <v>3.42</v>
-      </c>
-      <c r="D97">
-        <v>4.048</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>76</v>
-      </c>
-      <c r="B98">
-        <v>4.4889999999999999</v>
-      </c>
-      <c r="C98">
-        <v>3.8740000000000001</v>
-      </c>
-      <c r="D98">
-        <v>4.1814999999999998</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>76</v>
-      </c>
-      <c r="B99">
-        <v>4.9889999999999999</v>
-      </c>
-      <c r="C99">
-        <v>3.97</v>
-      </c>
-      <c r="D99">
-        <v>4.4794999999999998</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
-      </c>
-      <c r="F99">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>76</v>
-      </c>
-      <c r="B100">
-        <v>5.2110000000000003</v>
-      </c>
-      <c r="C100">
-        <v>5.4669999999999996</v>
-      </c>
-      <c r="D100">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>76</v>
-      </c>
-      <c r="B101">
-        <v>5.2939999999999996</v>
-      </c>
-      <c r="C101">
-        <v>5.9420000000000002</v>
-      </c>
-      <c r="D101">
-        <v>5.6180000000000003</v>
-      </c>
-      <c r="E101">
-        <v>5</v>
-      </c>
-      <c r="F101">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>76</v>
-      </c>
-      <c r="B102">
-        <v>5.383</v>
-      </c>
-      <c r="C102">
-        <v>8.0869999999999997</v>
-      </c>
-      <c r="D102">
-        <v>6.7349999999999994</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-      <c r="F102">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>76</v>
-      </c>
-      <c r="B103">
-        <v>6.87</v>
-      </c>
-      <c r="C103">
-        <v>8.0869999999999997</v>
-      </c>
-      <c r="D103">
-        <v>7.4785000000000004</v>
-      </c>
-      <c r="E103">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>84</v>
-      </c>
-      <c r="B104">
-        <v>2.3079999999999998</v>
-      </c>
-      <c r="C104">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="D104">
-        <v>2.206</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>84</v>
-      </c>
-      <c r="B105">
-        <v>2.4020000000000001</v>
-      </c>
-      <c r="C105">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="D105">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>84</v>
-      </c>
-      <c r="B106">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="C106">
-        <v>2.41</v>
-      </c>
-      <c r="D106">
-        <v>2.3325</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>84</v>
-      </c>
-      <c r="B107">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="C107">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="D107">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="E107">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>84</v>
-      </c>
-      <c r="B108">
-        <v>2.3079999999999998</v>
-      </c>
-      <c r="C108">
-        <v>2.673</v>
-      </c>
-      <c r="D108">
-        <v>2.4904999999999999</v>
-      </c>
-      <c r="E108">
-        <v>4</v>
-      </c>
-      <c r="F108">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>84</v>
-      </c>
-      <c r="B109">
-        <v>3.1909999999999998</v>
-      </c>
-      <c r="C109">
-        <v>2.774</v>
-      </c>
-      <c r="D109">
-        <v>2.9824999999999999</v>
-      </c>
-      <c r="E109">
-        <v>5</v>
-      </c>
-      <c r="F109">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>87</v>
-      </c>
-      <c r="B110">
-        <v>3.806</v>
-      </c>
-      <c r="C110">
-        <v>3.359</v>
-      </c>
-      <c r="D110">
-        <v>3.5825</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>87</v>
-      </c>
-      <c r="B111">
-        <v>2.423</v>
-      </c>
-      <c r="C111">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="D111">
-        <v>2.6799999999999997</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>87</v>
-      </c>
-      <c r="B112">
-        <v>2.8690000000000002</v>
-      </c>
-      <c r="C112">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="D112">
-        <v>2.5155000000000003</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>87</v>
-      </c>
-      <c r="B113">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="C113">
-        <v>2.9649999999999999</v>
-      </c>
-      <c r="D113">
-        <v>2.7649999999999997</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>87</v>
-      </c>
-      <c r="B114">
-        <v>2.9</v>
-      </c>
-      <c r="C114">
-        <v>3.004</v>
-      </c>
-      <c r="D114">
-        <v>2.952</v>
-      </c>
-      <c r="E114">
-        <v>4</v>
-      </c>
-      <c r="F114">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>87</v>
-      </c>
-      <c r="B115">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="C115">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="D115">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="E115">
-        <v>5</v>
-      </c>
-      <c r="F115">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>87</v>
-      </c>
-      <c r="B116">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="C116">
-        <v>2.75</v>
-      </c>
-      <c r="D116">
-        <v>2.8654999999999999</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
-      </c>
-      <c r="F116">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>87</v>
-      </c>
-      <c r="B117">
-        <v>2.8809999999999998</v>
-      </c>
-      <c r="C117">
-        <v>3.6190000000000002</v>
-      </c>
-      <c r="D117">
-        <v>3.25</v>
-      </c>
-      <c r="E117">
-        <v>7</v>
-      </c>
-      <c r="F117">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>91</v>
-      </c>
-      <c r="B118">
-        <v>3.3069999999999999</v>
-      </c>
-      <c r="C118">
-        <v>3.625</v>
-      </c>
-      <c r="D118">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>91</v>
-      </c>
-      <c r="B119">
-        <v>2.347</v>
-      </c>
-      <c r="C119">
-        <v>2.516</v>
-      </c>
-      <c r="D119">
-        <v>2.4314999999999998</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>91</v>
-      </c>
-      <c r="B120">
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="C120">
-        <v>1.869</v>
-      </c>
-      <c r="D120">
-        <v>1.9674999999999998</v>
-      </c>
-      <c r="E120">
-        <v>2</v>
-      </c>
-      <c r="F120">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>91</v>
-      </c>
-      <c r="B121">
-        <v>2.036</v>
-      </c>
-      <c r="C121">
-        <v>2.17</v>
-      </c>
-      <c r="D121">
-        <v>2.1029999999999998</v>
-      </c>
-      <c r="E121">
-        <v>3</v>
-      </c>
-      <c r="F121">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>91</v>
-      </c>
-      <c r="B122">
-        <v>2.4209999999999998</v>
-      </c>
-      <c r="C122">
-        <v>1.9</v>
-      </c>
-      <c r="D122">
-        <v>2.1604999999999999</v>
-      </c>
-      <c r="E122">
-        <v>4</v>
-      </c>
-      <c r="F122">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>91</v>
-      </c>
-      <c r="B123">
-        <v>1.9</v>
-      </c>
-      <c r="C123">
-        <v>1.464</v>
-      </c>
-      <c r="D123">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="E123">
-        <v>5</v>
-      </c>
-      <c r="F123">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>91</v>
-      </c>
-      <c r="B124">
-        <v>1.744</v>
-      </c>
-      <c r="C124">
-        <v>1.891</v>
-      </c>
-      <c r="D124">
-        <v>1.8174999999999999</v>
-      </c>
-      <c r="E124">
-        <v>6</v>
-      </c>
-      <c r="F124">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>91</v>
-      </c>
-      <c r="B125">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="C125">
-        <v>1.891</v>
-      </c>
-      <c r="D125">
-        <v>1.9115</v>
-      </c>
-      <c r="E125">
-        <v>7</v>
-      </c>
-      <c r="F125">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>93</v>
-      </c>
-      <c r="B126">
-        <v>3.3109999999999999</v>
-      </c>
-      <c r="C126">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="D126">
-        <v>3.0819999999999999</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>93</v>
-      </c>
-      <c r="B127">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="C127">
-        <v>3.3109999999999999</v>
-      </c>
-      <c r="D127">
-        <v>3.0819999999999999</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>93</v>
-      </c>
-      <c r="B128">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="C128">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="D128">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>93</v>
-      </c>
-      <c r="B129">
-        <v>3.7530000000000001</v>
-      </c>
-      <c r="C129">
-        <v>2.7280000000000002</v>
-      </c>
-      <c r="D129">
-        <v>3.2404999999999999</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>93</v>
-      </c>
-      <c r="B130">
-        <v>2.8050000000000002</v>
-      </c>
-      <c r="C130">
-        <v>2.7250000000000001</v>
-      </c>
-      <c r="D130">
-        <v>2.7650000000000001</v>
-      </c>
-      <c r="E130">
-        <v>4</v>
-      </c>
-      <c r="F130">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>93</v>
-      </c>
-      <c r="B131">
-        <v>2.573</v>
-      </c>
-      <c r="C131">
-        <v>2.339</v>
-      </c>
-      <c r="D131">
-        <v>2.456</v>
-      </c>
-      <c r="E131">
-        <v>5</v>
-      </c>
-      <c r="F131">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>93</v>
-      </c>
-      <c r="B132">
-        <v>3.379</v>
-      </c>
-      <c r="C132">
-        <v>2.339</v>
-      </c>
-      <c r="D132">
-        <v>2.859</v>
-      </c>
-      <c r="E132">
-        <v>6</v>
-      </c>
-      <c r="F132">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>101</v>
-      </c>
-      <c r="B133">
-        <v>6.9260000000000002</v>
-      </c>
-      <c r="C133">
-        <v>6.9260000000000002</v>
-      </c>
-      <c r="D133">
-        <v>6.9260000000000002</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>101</v>
-      </c>
-      <c r="B134">
-        <v>8.2390000000000008</v>
-      </c>
-      <c r="C134">
-        <v>7.6660000000000004</v>
-      </c>
-      <c r="D134">
-        <v>7.9525000000000006</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>101</v>
-      </c>
-      <c r="B135">
-        <v>7.7889999999999997</v>
-      </c>
-      <c r="C135">
-        <v>7.077</v>
-      </c>
-      <c r="D135">
-        <v>7.4329999999999998</v>
-      </c>
-      <c r="E135">
-        <v>2</v>
-      </c>
-      <c r="F135">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>101</v>
-      </c>
-      <c r="B136">
-        <v>8.6120000000000001</v>
-      </c>
-      <c r="C136">
-        <v>8.6120000000000001</v>
-      </c>
-      <c r="D136">
-        <v>8.6120000000000001</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>101</v>
-      </c>
-      <c r="B137">
-        <v>7.7839999999999998</v>
-      </c>
-      <c r="C137">
-        <v>7.8029999999999999</v>
-      </c>
-      <c r="D137">
-        <v>7.7934999999999999</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-      <c r="F137">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>101</v>
-      </c>
-      <c r="B138">
-        <v>9.1950000000000003</v>
-      </c>
-      <c r="C138">
-        <v>10.456</v>
-      </c>
-      <c r="D138">
-        <v>9.8254999999999999</v>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>101</v>
-      </c>
-      <c r="B139">
-        <v>10.065</v>
-      </c>
-      <c r="C139">
-        <v>9.1950000000000003</v>
-      </c>
-      <c r="D139">
-        <v>9.629999999999999</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-      <c r="F139">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>101</v>
-      </c>
-      <c r="B140">
-        <v>9.6669999999999998</v>
-      </c>
-      <c r="C140">
-        <v>11.12</v>
-      </c>
-      <c r="D140">
-        <v>10.3935</v>
-      </c>
-      <c r="E140">
-        <v>7</v>
-      </c>
-      <c r="F140">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>101</v>
-      </c>
-      <c r="B141">
-        <v>12.544</v>
-      </c>
-      <c r="C141">
-        <v>12.544</v>
-      </c>
-      <c r="D141">
-        <v>12.544</v>
-      </c>
-      <c r="E141">
-        <v>8</v>
-      </c>
-      <c r="F141">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>104</v>
-      </c>
-      <c r="B142">
-        <v>3.597</v>
-      </c>
-      <c r="C142">
-        <v>4.8390000000000004</v>
-      </c>
-      <c r="D142">
-        <v>4.218</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>104</v>
-      </c>
-      <c r="B143">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="C143">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="D143">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>104</v>
-      </c>
-      <c r="B144">
-        <v>6.49</v>
-      </c>
-      <c r="C144">
-        <v>6.2709999999999999</v>
-      </c>
-      <c r="D144">
-        <v>6.3804999999999996</v>
-      </c>
-      <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>104</v>
-      </c>
-      <c r="B145">
-        <v>6.03</v>
-      </c>
-      <c r="C145">
-        <v>6.75</v>
-      </c>
-      <c r="D145">
-        <v>6.3900000000000006</v>
-      </c>
-      <c r="E145">
-        <v>3</v>
-      </c>
-      <c r="F145">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>104</v>
-      </c>
-      <c r="B146">
-        <v>7.1020000000000003</v>
-      </c>
-      <c r="C146">
-        <v>6.5449999999999999</v>
-      </c>
-      <c r="D146">
-        <v>6.8235000000000001</v>
-      </c>
-      <c r="E146">
-        <v>4</v>
-      </c>
-      <c r="F146">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>104</v>
-      </c>
-      <c r="B147">
-        <v>5.5979999999999999</v>
-      </c>
-      <c r="C147">
-        <v>5.8440000000000003</v>
-      </c>
-      <c r="D147">
-        <v>5.7210000000000001</v>
-      </c>
-      <c r="E147">
-        <v>5</v>
-      </c>
-      <c r="F147">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>104</v>
-      </c>
-      <c r="B148">
-        <v>6.4870000000000001</v>
-      </c>
-      <c r="C148">
-        <v>6.4870000000000001</v>
-      </c>
-      <c r="D148">
-        <v>6.4870000000000001</v>
-      </c>
-      <c r="E148">
-        <v>6</v>
-      </c>
-      <c r="F148">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>104</v>
-      </c>
-      <c r="B149">
-        <v>6.8890000000000002</v>
-      </c>
-      <c r="C149">
-        <v>6.4870000000000001</v>
-      </c>
-      <c r="D149">
-        <v>6.6880000000000006</v>
-      </c>
-      <c r="E149">
-        <v>7</v>
-      </c>
-      <c r="F149">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>108</v>
-      </c>
-      <c r="B150">
-        <v>11.563000000000001</v>
-      </c>
-      <c r="C150">
-        <v>13.365</v>
-      </c>
-      <c r="D150">
-        <v>12.464</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>108</v>
-      </c>
-      <c r="B151">
-        <v>13.06</v>
-      </c>
-      <c r="C151">
-        <v>13.06</v>
-      </c>
-      <c r="D151">
-        <v>13.06</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>4934</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>108</v>
-      </c>
-      <c r="B152">
-        <v>12.858000000000001</v>
-      </c>
-      <c r="C152">
-        <v>15.132999999999999</v>
-      </c>
-      <c r="D152">
-        <v>13.9955</v>
-      </c>
-      <c r="E152">
-        <v>2</v>
-      </c>
-      <c r="F152">
-        <v>4609</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>108</v>
-      </c>
-      <c r="B153">
-        <v>15.192</v>
-      </c>
-      <c r="C153">
-        <v>15.372</v>
-      </c>
-      <c r="D153">
-        <v>15.282</v>
-      </c>
-      <c r="E153">
-        <v>3</v>
-      </c>
-      <c r="F153">
-        <v>5346</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>108</v>
-      </c>
-      <c r="B154">
-        <v>11.563000000000001</v>
-      </c>
-      <c r="C154">
-        <v>13.365</v>
-      </c>
-      <c r="D154">
-        <v>12.464</v>
-      </c>
-      <c r="E154">
-        <v>4</v>
-      </c>
-      <c r="F154">
-        <v>7154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>108</v>
-      </c>
-      <c r="B155">
-        <v>13.06</v>
-      </c>
-      <c r="C155">
-        <v>13.06</v>
-      </c>
-      <c r="D155">
-        <v>13.06</v>
-      </c>
-      <c r="E155">
-        <v>5</v>
-      </c>
-      <c r="F155">
-        <v>7552</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>108</v>
-      </c>
-      <c r="B156">
-        <v>12.858000000000001</v>
-      </c>
-      <c r="C156">
-        <v>15.132999999999999</v>
-      </c>
-      <c r="D156">
-        <v>13.9955</v>
-      </c>
-      <c r="E156">
-        <v>6</v>
-      </c>
-      <c r="F156">
-        <v>6314</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>108</v>
-      </c>
-      <c r="B157">
-        <v>15.192</v>
-      </c>
-      <c r="C157">
-        <v>15.372</v>
-      </c>
-      <c r="D157">
-        <v>15.282</v>
-      </c>
-      <c r="E157">
-        <v>7</v>
-      </c>
-      <c r="F157">
-        <v>4945</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>108</v>
-      </c>
-      <c r="B158">
-        <v>15.472</v>
-      </c>
-      <c r="C158">
-        <v>17.190999999999999</v>
-      </c>
-      <c r="D158">
-        <v>16.331499999999998</v>
-      </c>
-      <c r="E158">
-        <v>8</v>
-      </c>
-      <c r="F158">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>108</v>
-      </c>
-      <c r="B159">
-        <v>17.597000000000001</v>
-      </c>
-      <c r="C159">
-        <v>18.803000000000001</v>
-      </c>
-      <c r="D159">
-        <v>18.200000000000003</v>
-      </c>
-      <c r="E159">
-        <v>9</v>
-      </c>
-      <c r="F159">
-        <v>16247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>113</v>
-      </c>
-      <c r="B160">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="C160">
-        <v>1.514</v>
-      </c>
-      <c r="D160">
-        <v>1.431</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>113</v>
-      </c>
-      <c r="B161">
-        <v>1.591</v>
-      </c>
-      <c r="C161">
-        <v>1.591</v>
-      </c>
-      <c r="D161">
-        <v>1.591</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>113</v>
-      </c>
-      <c r="B162">
-        <v>1.554</v>
-      </c>
-      <c r="C162">
-        <v>1.649</v>
-      </c>
-      <c r="D162">
-        <v>1.6015000000000001</v>
-      </c>
-      <c r="E162">
-        <v>2</v>
-      </c>
-      <c r="F162">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>113</v>
-      </c>
-      <c r="B163">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="C163">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="D163">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="E163">
-        <v>3</v>
-      </c>
-      <c r="F163">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>113</v>
-      </c>
-      <c r="B164">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="C164">
-        <v>2.3959999999999999</v>
-      </c>
-      <c r="D164">
-        <v>1.9655</v>
-      </c>
-      <c r="E164">
-        <v>4</v>
-      </c>
-      <c r="F164">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>113</v>
-      </c>
-      <c r="B165">
-        <v>1.375</v>
-      </c>
-      <c r="C165">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="D165">
-        <v>1.542</v>
-      </c>
-      <c r="E165">
-        <v>5</v>
-      </c>
-      <c r="F165">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>122</v>
-      </c>
-      <c r="B166">
-        <v>3.57</v>
-      </c>
-      <c r="C166">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="D166">
-        <v>3.367</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>122</v>
-      </c>
-      <c r="B167">
-        <v>4.66</v>
-      </c>
-      <c r="C167">
-        <v>4.6189999999999998</v>
-      </c>
-      <c r="D167">
-        <v>4.6395</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>122</v>
-      </c>
-      <c r="B168">
-        <v>4.899</v>
-      </c>
-      <c r="C168">
-        <v>4.899</v>
-      </c>
-      <c r="D168">
-        <v>4.899</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>122</v>
-      </c>
-      <c r="B169">
-        <v>4.96</v>
-      </c>
-      <c r="C169">
-        <v>6.2670000000000003</v>
-      </c>
-      <c r="D169">
-        <v>5.6135000000000002</v>
-      </c>
-      <c r="E169">
-        <v>3</v>
-      </c>
-      <c r="F169">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>122</v>
-      </c>
-      <c r="B170">
-        <v>5.907</v>
-      </c>
-      <c r="C170">
-        <v>5.532</v>
-      </c>
-      <c r="D170">
-        <v>5.7195</v>
-      </c>
-      <c r="E170">
-        <v>4</v>
-      </c>
-      <c r="F170">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>122</v>
-      </c>
-      <c r="B171">
-        <v>5.085</v>
-      </c>
-      <c r="C171">
-        <v>6.9649999999999999</v>
-      </c>
-      <c r="D171">
-        <v>6.0250000000000004</v>
-      </c>
-      <c r="E171">
-        <v>5</v>
-      </c>
-      <c r="F171">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>122</v>
-      </c>
-      <c r="B172">
-        <v>6.0759999999999996</v>
-      </c>
-      <c r="C172">
-        <v>7.06</v>
-      </c>
-      <c r="D172">
-        <v>6.5679999999999996</v>
-      </c>
-      <c r="E172">
-        <v>6</v>
-      </c>
-      <c r="F172">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>122</v>
-      </c>
-      <c r="B173">
-        <v>6.5030000000000001</v>
-      </c>
-      <c r="C173">
-        <v>7.2329999999999997</v>
-      </c>
-      <c r="D173">
-        <v>6.8680000000000003</v>
-      </c>
-      <c r="E173">
-        <v>7</v>
-      </c>
-      <c r="F173">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>131</v>
-      </c>
-      <c r="B174">
-        <v>2.6539999999999999</v>
-      </c>
-      <c r="C174">
-        <v>2.6549999999999998</v>
-      </c>
-      <c r="D174">
-        <v>2.6544999999999996</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>131</v>
-      </c>
-      <c r="B175">
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="C175">
-        <v>3.5920000000000001</v>
-      </c>
-      <c r="D175">
-        <v>3.4785000000000004</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>131</v>
-      </c>
-      <c r="B176">
-        <v>3.3479999999999999</v>
-      </c>
-      <c r="C176">
-        <v>3.802</v>
-      </c>
-      <c r="D176">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="E176">
-        <v>2</v>
-      </c>
-      <c r="F176">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>131</v>
-      </c>
-      <c r="B177">
-        <v>3.6</v>
-      </c>
-      <c r="C177">
-        <v>3.6619999999999999</v>
-      </c>
-      <c r="D177">
-        <v>3.6310000000000002</v>
-      </c>
-      <c r="E177">
-        <v>3</v>
-      </c>
-      <c r="F177">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>131</v>
-      </c>
-      <c r="B178">
-        <v>3.488</v>
-      </c>
-      <c r="C178">
-        <v>4.21</v>
-      </c>
-      <c r="D178">
-        <v>3.8490000000000002</v>
-      </c>
-      <c r="E178">
-        <v>4</v>
-      </c>
-      <c r="F178">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>131</v>
-      </c>
-      <c r="B179">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="C179">
-        <v>5.077</v>
-      </c>
-      <c r="D179">
-        <v>4.7330000000000005</v>
-      </c>
-      <c r="E179">
-        <v>5</v>
-      </c>
-      <c r="F179">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>131</v>
-      </c>
-      <c r="B180">
-        <v>5.45</v>
-      </c>
-      <c r="C180">
-        <v>5.3390000000000004</v>
-      </c>
-      <c r="D180">
-        <v>5.3945000000000007</v>
-      </c>
-      <c r="E180">
-        <v>6</v>
-      </c>
-      <c r="F180">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>140</v>
-      </c>
-      <c r="B181">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="C181">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="D181">
-        <v>2.117</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>140</v>
-      </c>
-      <c r="B182">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="C182">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="D182">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>140</v>
-      </c>
-      <c r="B183">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="C183">
-        <v>2.12</v>
-      </c>
-      <c r="D183">
-        <v>2.0445000000000002</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="F183">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>140</v>
-      </c>
-      <c r="B184">
-        <v>2.0190000000000001</v>
-      </c>
-      <c r="C184">
-        <v>2.093</v>
-      </c>
-      <c r="D184">
-        <v>2.056</v>
-      </c>
-      <c r="E184">
-        <v>3</v>
-      </c>
-      <c r="F184">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>140</v>
-      </c>
-      <c r="B185">
-        <v>1.998</v>
-      </c>
-      <c r="C185">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="D185">
-        <v>1.9060000000000001</v>
-      </c>
-      <c r="E185">
-        <v>4</v>
-      </c>
-      <c r="F185">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>140</v>
-      </c>
-      <c r="B186">
-        <v>1.855</v>
-      </c>
-      <c r="C186">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="D186">
-        <v>1.8944999999999999</v>
-      </c>
-      <c r="E186">
-        <v>5</v>
-      </c>
-      <c r="F186">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>140</v>
-      </c>
-      <c r="B187">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="C187">
-        <v>2.4420000000000002</v>
-      </c>
-      <c r="D187">
-        <v>2.0470000000000002</v>
-      </c>
-      <c r="E187">
-        <v>6</v>
-      </c>
-      <c r="F187">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>140</v>
-      </c>
-      <c r="B188">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="C188">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="D188">
-        <v>1.8319999999999999</v>
-      </c>
-      <c r="E188">
-        <v>7</v>
-      </c>
-      <c r="F188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>152</v>
-      </c>
-      <c r="B189">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="C189">
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="D189">
-        <v>1.607</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>152</v>
-      </c>
-      <c r="B190">
-        <v>1.863</v>
-      </c>
-      <c r="C190">
-        <v>1.298</v>
-      </c>
-      <c r="D190">
-        <v>1.5805</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>152</v>
-      </c>
-      <c r="B191">
-        <v>1.512</v>
-      </c>
-      <c r="C191">
-        <v>1.655</v>
-      </c>
-      <c r="D191">
-        <v>1.5834999999999999</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-      <c r="F191">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>152</v>
-      </c>
-      <c r="B192">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="C192">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="D192">
-        <v>1.4495</v>
-      </c>
-      <c r="E192">
-        <v>3</v>
-      </c>
-      <c r="F192">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>152</v>
-      </c>
-      <c r="B193">
-        <v>1.472</v>
-      </c>
-      <c r="C193">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D193">
-        <v>1.3634999999999999</v>
-      </c>
-      <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>152</v>
-      </c>
-      <c r="B194">
-        <v>1.5</v>
-      </c>
-      <c r="C194">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D194">
-        <v>1.3774999999999999</v>
-      </c>
-      <c r="E194">
-        <v>5</v>
-      </c>
-      <c r="F194">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>157</v>
-      </c>
-      <c r="B195">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="C195">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="D195">
-        <v>1.6575000000000002</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>157</v>
-      </c>
-      <c r="B196">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="C196">
-        <v>1.76</v>
-      </c>
-      <c r="D196">
-        <v>1.7885</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>157</v>
-      </c>
-      <c r="B197">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="C197">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="D197">
-        <v>1.6495000000000002</v>
-      </c>
-      <c r="E197">
-        <v>2</v>
-      </c>
-      <c r="F197">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>157</v>
-      </c>
-      <c r="B198">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="C198">
-        <v>1.413</v>
-      </c>
-      <c r="D198">
-        <v>1.8039999999999998</v>
-      </c>
-      <c r="E198">
-        <v>3</v>
-      </c>
-      <c r="F198">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>157</v>
-      </c>
-      <c r="B199">
-        <v>2.9889999999999999</v>
-      </c>
-      <c r="C199">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="D199">
-        <v>2.7149999999999999</v>
-      </c>
-      <c r="E199">
-        <v>4</v>
-      </c>
-      <c r="F199">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>157</v>
-      </c>
-      <c r="B200">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="C200">
-        <v>1.885</v>
-      </c>
-      <c r="D200">
-        <v>2.1629999999999998</v>
-      </c>
-      <c r="E200">
-        <v>5</v>
-      </c>
-      <c r="F200">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>157</v>
-      </c>
-      <c r="B201">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="C201">
-        <v>2.137</v>
-      </c>
-      <c r="D201">
-        <v>2.089</v>
-      </c>
-      <c r="E201">
-        <v>6</v>
-      </c>
-      <c r="F201">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>157</v>
-      </c>
-      <c r="B202">
-        <v>2.7069999999999999</v>
-      </c>
-      <c r="C202">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="D202">
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="E202">
-        <v>7</v>
-      </c>
-      <c r="F202">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>157</v>
-      </c>
-      <c r="B203">
-        <v>2.6589999999999998</v>
-      </c>
-      <c r="C203">
-        <v>2.6589999999999998</v>
-      </c>
-      <c r="D203">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="E203">
-        <v>8</v>
-      </c>
-      <c r="F203">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>166</v>
-      </c>
-      <c r="B204">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="C204">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="D204">
-        <v>1.355</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>166</v>
-      </c>
-      <c r="B205">
-        <v>1.341</v>
-      </c>
-      <c r="C205">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="D205">
-        <v>1.6415</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>166</v>
-      </c>
-      <c r="B206">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="C206">
-        <v>1.585</v>
-      </c>
-      <c r="D206">
-        <v>1.7635000000000001</v>
-      </c>
-      <c r="E206">
-        <v>2</v>
-      </c>
-      <c r="F206">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>166</v>
-      </c>
-      <c r="B207">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="C207">
-        <v>1.639</v>
-      </c>
-      <c r="D207">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="E207">
-        <v>3</v>
-      </c>
-      <c r="F207">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>166</v>
-      </c>
-      <c r="B208">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="C208">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="D208">
-        <v>1.5085000000000002</v>
-      </c>
-      <c r="E208">
-        <v>4</v>
-      </c>
-      <c r="F208">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>166</v>
-      </c>
-      <c r="B209">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="C209">
-        <v>1.502</v>
-      </c>
-      <c r="D209">
-        <v>1.802</v>
-      </c>
-      <c r="E209">
-        <v>5</v>
-      </c>
-      <c r="F209">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>166</v>
-      </c>
-      <c r="B210">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="C210">
-        <v>1.387</v>
-      </c>
-      <c r="D210">
-        <v>1.3774999999999999</v>
-      </c>
-      <c r="E210">
-        <v>6</v>
-      </c>
-      <c r="F210">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>166</v>
-      </c>
-      <c r="B211">
-        <v>1.421</v>
-      </c>
-      <c r="C211">
-        <v>1.387</v>
-      </c>
-      <c r="D211">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="E211">
-        <v>7</v>
-      </c>
-      <c r="F211">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>178</v>
-      </c>
-      <c r="B212">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="C212">
-        <v>3.1040000000000001</v>
-      </c>
-      <c r="D212">
-        <v>2.839</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>178</v>
-      </c>
-      <c r="B213">
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="C213">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="D213">
-        <v>3.625</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>178</v>
-      </c>
-      <c r="B214">
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="C214">
-        <v>3.89</v>
-      </c>
-      <c r="D214">
-        <v>3.6539999999999999</v>
-      </c>
-      <c r="E214">
-        <v>2</v>
-      </c>
-      <c r="F214">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>178</v>
-      </c>
-      <c r="B215">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="C215">
-        <v>3.3170000000000002</v>
-      </c>
-      <c r="D215">
-        <v>3.4939999999999998</v>
-      </c>
-      <c r="E215">
-        <v>3</v>
-      </c>
-      <c r="F215">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216">
-        <v>178</v>
-      </c>
-      <c r="B216">
-        <v>3.19</v>
-      </c>
-      <c r="C216">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="D216">
-        <v>3.3414999999999999</v>
-      </c>
-      <c r="E216">
-        <v>4</v>
-      </c>
-      <c r="F216">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217">
-        <v>178</v>
-      </c>
-      <c r="B217">
-        <v>3.4529999999999998</v>
-      </c>
-      <c r="C217">
-        <v>3.9279999999999999</v>
-      </c>
-      <c r="D217">
-        <v>3.6905000000000001</v>
-      </c>
-      <c r="E217">
-        <v>5</v>
-      </c>
-      <c r="F217">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218">
-        <v>178</v>
-      </c>
-      <c r="B218">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="C218">
-        <v>4.1959999999999997</v>
-      </c>
-      <c r="D218">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E218">
-        <v>6</v>
-      </c>
-      <c r="F218">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219">
-        <v>178</v>
-      </c>
-      <c r="B219">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="C219">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="D219">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="E219">
-        <v>7</v>
-      </c>
-      <c r="F219">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220">
-        <v>178</v>
-      </c>
-      <c r="B220">
-        <v>5.3719999999999999</v>
-      </c>
-      <c r="C220">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="D220">
-        <v>4.9655000000000005</v>
-      </c>
-      <c r="E220">
-        <v>8</v>
-      </c>
-      <c r="F220">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" t="s">
         <v>202</v>
       </c>
       <c r="C1" t="s">

--- a/cable_text.xlsx
+++ b/cable_text.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\develop\git_space\predictDramaRating\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="시청률흥행지표-케이블" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="predictSheet" sheetId="7" r:id="rId7"/>
     <sheet name="beforeAfter" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,7 +797,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,6 +810,2048 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>predictSheet!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>comment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>predictSheet!$D$2:$D$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>1.907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0554999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3725000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4495000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8185000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0934999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.638500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.361499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.798500000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9044999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9604999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9325000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8014999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5985</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.504</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0305</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1034999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.6370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7125000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0145</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.0765000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.7945000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4775</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.669</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5285000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.532</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.7410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6245000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.5495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.7235000000000014</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.3825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.0274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0094999999999992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.048</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.1814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.6180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.7349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4785000000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3325</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.9824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5155000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.4314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9674999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1604999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.9115</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.8530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.456</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.859</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.9525000000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.7934999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.8254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.3935</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.544</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.6870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.3804999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.3900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.8235000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.7210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.6880000000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.9955</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>15.282</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.464</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.9955</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15.282</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>16.331499999999998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9655</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.542</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.6395</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.899</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.6135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.7195</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.5679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.4785000000000004</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.8490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.7330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.3945000000000007</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0445000000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.056</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.9060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.8944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.0470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.5805</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.5834999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.4495</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.3634999999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.3774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.7885</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.6495000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.8039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.1629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.089</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.6415</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.7635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.5085000000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.3774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.4939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.3414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.6905000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.5590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.9655000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>predictSheet!$M$2:$M$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9052</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8892</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12762</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3247</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8147</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4726</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4576</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4248</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2792</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4934</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4609</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5346</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7154</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7552</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6314</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4945</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12762</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>548.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1773728960"/>
+        <c:axId val="1773728416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1773728960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773728416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1773728416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1773728960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,7 +3109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23679,8 +25726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="M198" sqref="M198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="1" sqref="D1:D1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31817,6 +33864,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31825,7 +33873,7 @@
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
